--- a/workbooks/PlatformDatabase2.xlsx
+++ b/workbooks/PlatformDatabase2.xlsx
@@ -16,9 +16,6 @@
     <sheet name="Custom Column Description" sheetId="3" r:id="rId2"/>
     <sheet name="Supported Data Type" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -49,9 +46,6 @@
     <t>Cost Ranking</t>
   </si>
   <si>
-    <t>Cost ($Thousands)</t>
-  </si>
-  <si>
     <t>Payload (kg)</t>
   </si>
   <si>
@@ -206,12 +200,6 @@
   </si>
   <si>
     <t>Ops Duration</t>
-  </si>
-  <si>
-    <t>$thousands</t>
-  </si>
-  <si>
-    <t>Cost Real</t>
   </si>
 </sst>
 </file>
@@ -324,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,35 +344,32 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,23 +392,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Communication"/>
-      <sheetName val="Custom Column Description"/>
-      <sheetName val="Supported Data Type"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -723,29 +691,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="27.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="18"/>
-    <col min="5" max="5" width="12.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="14"/>
-    <col min="7" max="7" width="11.42578125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="14"/>
-    <col min="10" max="10" width="15" style="15" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="20" customWidth="1"/>
-    <col min="12" max="14" width="12.7109375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="2" max="2" width="27.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="16"/>
+    <col min="5" max="5" width="12.7109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="13"/>
+    <col min="7" max="7" width="11.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="15" style="14" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="18" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -756,553 +724,508 @@
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="12" t="s">
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="15">
+        <v>5</v>
+      </c>
+      <c r="M2" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="15">
+        <v>1300</v>
+      </c>
+      <c r="M3" s="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>160</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="14">
         <v>4</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="15">
+        <v>2800</v>
+      </c>
+      <c r="M4" s="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1300</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="15">
+        <v>600</v>
+      </c>
+      <c r="M5" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="14">
+        <v>4</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="15">
+        <v>800</v>
+      </c>
+      <c r="M6" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>200</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13">
+        <v>13</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="15">
+        <v>1400</v>
+      </c>
+      <c r="M7" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="14">
+        <v>4</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="15">
+        <v>3000</v>
+      </c>
+      <c r="M8" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12">
+        <v>23000</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="14">
+        <v>4</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="15">
+        <v>4550</v>
+      </c>
+      <c r="M9" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D10" s="12">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="M10" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>70</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="17">
+        <v>1</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16">
+        <v>550</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="17">
+        <v>300</v>
+      </c>
+      <c r="M12" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>3175</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="13">
+        <v>9</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="15">
+        <v>400</v>
+      </c>
+      <c r="M13" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="C2" s="13">
+      <c r="B14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="16">
+        <v>2</v>
+      </c>
+      <c r="D14" s="16">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="13">
+        <v>9</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="15">
+        <v>500</v>
+      </c>
+      <c r="M14" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="16">
         <v>1</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D15" s="16">
+        <v>20</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="15">
+        <v>60</v>
+      </c>
+      <c r="M15" s="17">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="16">
-        <v>5</v>
-      </c>
-      <c r="M2" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="N2" s="16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
-        <v>15</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="16">
-        <v>1300</v>
-      </c>
-      <c r="M3" s="16">
-        <v>24</v>
-      </c>
-      <c r="N3" s="16">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="13">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13">
-        <v>160</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="15">
-        <v>4</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="16">
-        <v>2800</v>
-      </c>
-      <c r="M4" s="16">
-        <v>24</v>
-      </c>
-      <c r="N4" s="16">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="13">
-        <v>3</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1300</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="16">
-        <v>600</v>
-      </c>
-      <c r="M5" s="16">
-        <v>4</v>
-      </c>
-      <c r="N5" s="16">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="13">
-        <v>4</v>
-      </c>
-      <c r="D6" s="13">
-        <v>3000</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="15">
-        <v>4</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="16">
-        <v>800</v>
-      </c>
-      <c r="M6" s="16">
-        <v>4</v>
-      </c>
-      <c r="N6" s="16">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2</v>
-      </c>
-      <c r="D7" s="13">
-        <v>200</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="14">
-        <v>13</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="16">
-        <v>1400</v>
-      </c>
-      <c r="M7" s="16">
-        <v>5</v>
-      </c>
-      <c r="N7" s="16">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="13">
-        <v>3</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2300</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="15">
-        <v>4</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="16">
-        <v>3000</v>
-      </c>
-      <c r="M8" s="16">
-        <v>5</v>
-      </c>
-      <c r="N8" s="16">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="13">
-        <v>5</v>
-      </c>
-      <c r="D9" s="13">
-        <v>23000</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="15">
-        <v>4</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="16">
-        <v>4550</v>
-      </c>
-      <c r="M9" s="16">
-        <v>3</v>
-      </c>
-      <c r="N9" s="16">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
-        <v>10</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="M10" s="16">
-        <v>5</v>
-      </c>
-      <c r="N10" s="16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="18">
-        <v>1</v>
-      </c>
-      <c r="D11" s="18">
-        <v>70</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="19">
-        <v>1</v>
-      </c>
-      <c r="M11" s="19">
-        <v>8</v>
-      </c>
-      <c r="N11" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="18">
-        <v>1</v>
-      </c>
-      <c r="D12" s="18">
-        <v>550</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="19">
-        <v>300</v>
-      </c>
-      <c r="M12" s="19">
-        <v>8</v>
-      </c>
-      <c r="N12" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="18">
-        <v>1</v>
-      </c>
-      <c r="D13" s="18">
-        <v>3175</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="14">
-        <v>9</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="16">
-        <v>400</v>
-      </c>
-      <c r="M13" s="19">
-        <v>8</v>
-      </c>
-      <c r="N13" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="18">
-        <v>2</v>
-      </c>
-      <c r="D14" s="18">
-        <v>8000</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="14">
-        <v>9</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="16">
-        <v>500</v>
-      </c>
-      <c r="M14" s="19">
-        <v>10</v>
-      </c>
-      <c r="N14" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>14</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="18">
-        <v>1</v>
-      </c>
-      <c r="D15" s="18">
-        <v>20</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="16">
-        <v>60</v>
-      </c>
-      <c r="M15" s="19">
-        <v>4</v>
-      </c>
-      <c r="N15" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K16" s="11"/>
-      <c r="L16" s="16"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K16" s="19"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K17" s="11"/>
-      <c r="L17" s="16"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="L18" s="16"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="L19" s="16"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="L20" s="16"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="L21" s="16"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="L22" s="16"/>
+      <c r="L22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1317,10 +1240,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,70 +1256,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="6">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="6">
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="6">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1409,13 +1315,13 @@
           <x14:formula1>
             <xm:f>'Supported Data Type'!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E4</xm:sqref>
+          <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Supported Data Type'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D4</xm:sqref>
+          <xm:sqref>D2:D3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1443,32 +1349,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/workbooks/PlatformDatabase2.xlsx
+++ b/workbooks/PlatformDatabase2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="12690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="4" r:id="rId1"/>
@@ -693,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -1242,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1302,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/workbooks/PlatformDatabase2.xlsx
+++ b/workbooks/PlatformDatabase2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\NetBeansProjects\DisasterResponseTradeStudy\workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Dropbox\PMASE - Capstone\Solution Design\Tech Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Ops Duration</t>
+  </si>
+  <si>
+    <t>Platform Type</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -694,7 +700,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1043,7 @@
       <c r="D11" s="16">
         <v>70</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="13" t="s">
@@ -1073,7 +1079,7 @@
       <c r="D12" s="16">
         <v>550</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="13" t="s">
@@ -1109,7 +1115,7 @@
       <c r="D13" s="16">
         <v>3175</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="13">
@@ -1145,7 +1151,7 @@
       <c r="D14" s="16">
         <v>8000</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="13">
@@ -1181,7 +1187,7 @@
       <c r="D15" s="16">
         <v>20</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="13" t="s">
@@ -1231,7 +1237,36 @@
   <mergeCells count="1">
     <mergeCell ref="K1:K17"/>
   </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15 L1:L1048576 M1:M1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Supported Data Type'!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Supported Data Type'!$G$2:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1243,7 +1278,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,13 +1350,13 @@
           <x14:formula1>
             <xm:f>'Supported Data Type'!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E3</xm:sqref>
+          <xm:sqref>E2:E4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Supported Data Type'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D3</xm:sqref>
+          <xm:sqref>D2:D4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1334,10 +1369,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,9 +1380,13 @@
     <col min="1" max="1" width="27.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1355,26 +1394,62 @@
       <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/workbooks/PlatformDatabase2.xlsx
+++ b/workbooks/PlatformDatabase2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Dropbox\PMASE - Capstone\Solution Design\Tech Matrices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\NetBeansProjects\DisasterResponseTradeStudy\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -193,12 +193,6 @@
     <t>Custom Values After This Column</t>
   </si>
   <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>kilometers</t>
-  </si>
-  <si>
     <t>Ops Duration</t>
   </si>
   <si>
@@ -206,6 +200,12 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>hrs</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1314,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>48</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6">
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>48</v>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="1" t="s">
@@ -1436,7 +1436,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>

--- a/workbooks/PlatformDatabase2.xlsx
+++ b/workbooks/PlatformDatabase2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\NetBeansProjects\DisasterResponseTradeStudy\workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Dropbox\PMASE - Capstone\Solution Design\Tech Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Custom Column Description" sheetId="3" r:id="rId2"/>
     <sheet name="Supported Data Type" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -73,9 +73,6 @@
     <t>13,14</t>
   </si>
   <si>
-    <t>4,9</t>
-  </si>
-  <si>
     <t>Medium UAV</t>
   </si>
   <si>
@@ -206,6 +203,18 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>1,2,10,11,12</t>
+  </si>
+  <si>
+    <t>7,13</t>
+  </si>
+  <si>
+    <t>1,2,5,10,11</t>
   </si>
 </sst>
 </file>
@@ -699,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>2</v>
@@ -783,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K2" s="19"/>
       <c r="L2" s="15">
@@ -798,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
@@ -813,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="15">
@@ -828,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="12">
         <v>2</v>
@@ -840,7 +849,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="15">
@@ -855,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="12">
         <v>3</v>
@@ -867,10 +876,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="15">
@@ -885,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="12">
         <v>4</v>
@@ -897,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="15">
@@ -915,7 +924,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -930,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="15">
@@ -945,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="12">
         <v>3</v>
@@ -957,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="15">
@@ -972,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="12">
         <v>5</v>
@@ -984,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="15">
@@ -999,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -1008,19 +1017,19 @@
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="H10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="I10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="15">
@@ -1035,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
@@ -1044,19 +1053,19 @@
         <v>70</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="J11" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="17">
@@ -1071,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="16">
         <v>1</v>
@@ -1080,19 +1089,19 @@
         <v>550</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="17">
@@ -1107,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
@@ -1116,19 +1125,19 @@
         <v>3175</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="13">
         <v>9</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="15">
@@ -1143,7 +1152,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="16">
         <v>2</v>
@@ -1152,19 +1161,19 @@
         <v>8000</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="13">
         <v>9</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="15">
@@ -1179,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="16">
         <v>1</v>
@@ -1188,19 +1197,19 @@
         <v>20</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="15">
@@ -1211,8 +1220,37 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16">
+        <v>20</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="K16" s="19"/>
-      <c r="L16" s="15"/>
+      <c r="L16" s="15">
+        <v>10</v>
+      </c>
+      <c r="M16" s="17">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K17" s="19"/>
@@ -1278,7 +1316,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,53 +1329,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6">
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1410,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,15 +1426,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="1" t="s">
@@ -1405,10 +1443,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>13</v>
@@ -1419,13 +1457,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -1433,10 +1471,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
